--- a/ValueSet-wellbeing-category-vs.xlsx
+++ b/ValueSet-wellbeing-category-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-28T21:18:04+00:00</t>
+    <t>2025-01-02T22:55:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -124,12 +124,6 @@
   </si>
   <si>
     <t>Well-Being Priority</t>
-  </si>
-  <si>
-    <t>wellbeing-focus-area</t>
-  </si>
-  <si>
-    <t>Well-Being Focus Area</t>
   </si>
   <si>
     <t/>
@@ -405,7 +399,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -460,23 +454,15 @@
         <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s" s="2">
         <v>39</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-wellbeing-category-vs.xlsx
+++ b/ValueSet-wellbeing-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T22:55:55+00:00</t>
+    <t>2025-01-06T17:40:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-wellbeing-category-vs.xlsx
+++ b/ValueSet-wellbeing-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T17:40:57+00:00</t>
+    <t>2025-01-06T22:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-wellbeing-category-vs.xlsx
+++ b/ValueSet-wellbeing-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T22:35:31+00:00</t>
+    <t>2025-01-08T19:36:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-wellbeing-category-vs.xlsx
+++ b/ValueSet-wellbeing-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T19:36:44+00:00</t>
+    <t>2025-01-09T14:13:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-wellbeing-category-vs.xlsx
+++ b/ValueSet-wellbeing-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T14:13:32+00:00</t>
+    <t>2025-01-10T15:56:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-wellbeing-category-vs.xlsx
+++ b/ValueSet-wellbeing-category-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T15:56:56+00:00</t>
+    <t>2025-01-10T20:42:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
